--- a/data/Simulations/HR1_2/A_KPC_35_1/A_KPC_35_1_2030.xlsx
+++ b/data/Simulations/HR1_2/A_KPC_35_1/A_KPC_35_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11749C38-7C20-4A64-89D0-A37EB0368527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6EFDFB-6BFE-4EB9-A686-B7F0CDB628D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14871,28 +14871,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>18.309999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>6.52</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15164,7 +15152,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21924,7 +21912,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28430,7 +28418,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39209,7 +39197,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:Y4"/>
+      <selection activeCell="C2" sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48032,7 +48020,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48246,7 +48234,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
